--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-0.15/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-0.15/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="934">
   <si>
     <t>anchor score</t>
   </si>
@@ -397,433 +397,433 @@
     <t>wrong</t>
   </si>
   <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>combat</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>questions</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>saying</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>seems</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>trends</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>ex</t>
+  </si>
+  <si>
+    <t>eco</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>wash</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>combat</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>questions</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>saying</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>seems</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>trends</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>countries</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>res</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>ex</t>
-  </si>
-  <si>
-    <t>eco</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>wash</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>heroes</t>
   </si>
   <si>
     <t>dear</t>
@@ -3184,7 +3184,7 @@
         <v>112</v>
       </c>
       <c r="J1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3363,7 +3363,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K5">
         <v>0.9322033898305084</v>
@@ -3413,7 +3413,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K6">
         <v>0.8846153846153846</v>
@@ -3563,7 +3563,7 @@
         <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K9">
         <v>0.8346456692913385</v>
@@ -3613,7 +3613,7 @@
         <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K10">
         <v>0.8333333333333334</v>
@@ -3713,7 +3713,7 @@
         <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K12">
         <v>0.7777777777777778</v>
@@ -3813,7 +3813,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K14">
         <v>0.7543859649122807</v>
@@ -3913,7 +3913,7 @@
         <v>156</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K16">
         <v>0.6984126984126984</v>
@@ -3963,7 +3963,7 @@
         <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K17">
         <v>0.6923076923076923</v>
@@ -4063,28 +4063,28 @@
         <v>4</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="K19">
-        <v>0.6695278969957081</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L19">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>162</v>
+        <v>32</v>
       </c>
       <c r="N19">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O19">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4113,28 +4113,28 @@
         <v>11</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>145</v>
+        <v>264</v>
       </c>
       <c r="K20">
-        <v>0.6595744680851063</v>
+        <v>0.6527196652719666</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="N20">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4313,7 +4313,7 @@
         <v>12</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K24">
         <v>0.6056338028169014</v>
@@ -4413,7 +4413,7 @@
         <v>4</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K26">
         <v>0.6</v>
@@ -4463,7 +4463,7 @@
         <v>4</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K27">
         <v>0.5882352941176471</v>
@@ -4513,7 +4513,7 @@
         <v>4</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K28">
         <v>0.574468085106383</v>
@@ -4563,28 +4563,28 @@
         <v>2</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="K29">
-        <v>0.5349544072948328</v>
+        <v>0.53125</v>
       </c>
       <c r="L29">
-        <v>176</v>
+        <v>34</v>
       </c>
       <c r="M29">
-        <v>187</v>
+        <v>35</v>
       </c>
       <c r="N29">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O29">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>153</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4613,28 +4613,28 @@
         <v>13</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>178</v>
+        <v>269</v>
       </c>
       <c r="K30">
-        <v>0.53125</v>
+        <v>0.5176470588235295</v>
       </c>
       <c r="L30">
-        <v>34</v>
+        <v>176</v>
       </c>
       <c r="M30">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="N30">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>30</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4913,7 +4913,7 @@
         <v>6</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K36">
         <v>0.4558823529411765</v>
@@ -5113,7 +5113,7 @@
         <v>10</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K40">
         <v>0.450261780104712</v>
@@ -5263,7 +5263,7 @@
         <v>8</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K43">
         <v>0.4367816091954023</v>
@@ -5363,7 +5363,7 @@
         <v>9</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K45">
         <v>0.4270833333333333</v>
@@ -5863,7 +5863,7 @@
         <v>5</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K55">
         <v>0.3620689655172414</v>
@@ -6063,7 +6063,7 @@
         <v>22</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K59">
         <v>0.3414634146341464</v>
@@ -6413,7 +6413,7 @@
         <v>6</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K66">
         <v>0.3333333333333333</v>
@@ -7163,7 +7163,7 @@
         <v>7</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K81">
         <v>0.2857142857142857</v>
@@ -7413,7 +7413,7 @@
         <v>15</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K86">
         <v>0.2727272727272727</v>
@@ -7763,7 +7763,7 @@
         <v>34</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K93">
         <v>0.2395833333333333</v>
@@ -9192,25 +9192,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.07228915662650602</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C122">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D122">
-        <v>162</v>
+        <v>2</v>
       </c>
       <c r="E122">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>340</v>
@@ -9245,22 +9245,22 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123">
         <v>2</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>341</v>
@@ -9292,28 +9292,28 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.07142857142857142</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D124">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E124">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F124">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K124">
         <v>0.2065727699530517</v>
@@ -9348,13 +9348,13 @@
         <v>2</v>
       </c>
       <c r="D125">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E125">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F125">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
@@ -9392,28 +9392,28 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.06896551724137931</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D126">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E126">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="F126">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K126">
         <v>0.2</v>
@@ -9442,25 +9442,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.06707317073170732</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C127">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D127">
-        <v>187</v>
+        <v>44</v>
       </c>
       <c r="E127">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F127">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>76</v>
@@ -9498,16 +9498,16 @@
         <v>1</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E128">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128">
         <v>14</v>
@@ -9542,25 +9542,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.06666666666666667</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D129">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="E129">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>344</v>
@@ -9592,13 +9592,13 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.06666666666666667</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -9610,10 +9610,10 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K130">
         <v>0.2</v>
@@ -9642,13 +9642,13 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -9660,7 +9660,7 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>49</v>
@@ -9692,25 +9692,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>345</v>
@@ -9748,16 +9748,16 @@
         <v>1</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133">
         <v>15</v>
@@ -9798,22 +9798,22 @@
         <v>1</v>
       </c>
       <c r="D134">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E134">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134">
         <v>15</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K134">
         <v>0.1966426858513189</v>
@@ -9842,28 +9842,28 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.0625</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D135">
         <v>4</v>
       </c>
       <c r="E135">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F135">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K135">
         <v>0.1951219512195122</v>
@@ -9892,7 +9892,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -9910,7 +9910,7 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>347</v>
@@ -9942,25 +9942,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.06060606060606061</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E137">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>348</v>
@@ -9998,22 +9998,22 @@
         <v>1</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138">
         <v>16</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K138">
         <v>0.189873417721519</v>
@@ -10048,16 +10048,16 @@
         <v>1</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139">
         <v>16</v>
@@ -10092,25 +10092,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
       <c r="D140">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E140">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>350</v>
@@ -10142,25 +10142,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E141">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>351</v>
@@ -10192,7 +10192,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10210,7 +10210,7 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>352</v>
@@ -10242,7 +10242,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10260,7 +10260,7 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>353</v>
@@ -10298,16 +10298,16 @@
         <v>1</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144">
         <v>18</v>
@@ -10342,13 +10342,13 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.05263157894736842</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>355</v>
@@ -10392,25 +10392,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D146">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E146">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F146">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>102</v>
@@ -10442,25 +10442,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.05194805194805195</v>
+        <v>0.05</v>
       </c>
       <c r="C147">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D147">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>356</v>
@@ -10492,25 +10492,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.05128205128205128</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D148">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E148">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F148">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>357</v>
@@ -10542,25 +10542,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>358</v>
@@ -10592,25 +10592,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="E150">
-        <v>0.75</v>
+        <v>0.99</v>
       </c>
       <c r="F150">
-        <v>0.25</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>359</v>
@@ -10642,7 +10642,7 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -10660,10 +10660,10 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K151">
         <v>0.178343949044586</v>
@@ -10692,25 +10692,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="E152">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="F152">
-        <v>0.01000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>360</v>
@@ -10742,7 +10742,7 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -10760,7 +10760,7 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>361</v>
@@ -10892,25 +10892,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.04347826086956522</v>
+        <v>0.04069767441860465</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>130</v>
       </c>
       <c r="E156">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F156">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>364</v>
@@ -10942,25 +10942,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.04347826086956522</v>
+        <v>0.04</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>365</v>
@@ -10992,13 +10992,13 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.04069767441860465</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="C158">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D158">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="E158">
         <v>0.95</v>
@@ -11010,7 +11010,7 @@
         <v>1</v>
       </c>
       <c r="H158">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>366</v>
@@ -11042,25 +11042,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E159">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F159">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>367</v>
@@ -11092,25 +11092,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.0392156862745098</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D160">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E160">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F160">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>368</v>
@@ -11142,25 +11142,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E161">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F161">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>369</v>
@@ -11192,25 +11192,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E162">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>370</v>
@@ -11242,25 +11242,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E163">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F163">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>371</v>
@@ -11292,7 +11292,7 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -11310,7 +11310,7 @@
         <v>0</v>
       </c>
       <c r="H164">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>372</v>
@@ -11345,22 +11345,22 @@
         <v>0.03571428571428571</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D165">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E165">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="F165">
-        <v>0.5</v>
+        <v>0.22</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>373</v>
@@ -11398,16 +11398,16 @@
         <v>1</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166">
         <v>27</v>
@@ -11442,25 +11442,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D167">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E167">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="G167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>375</v>
@@ -11492,25 +11492,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E168">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F168">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>376</v>
@@ -11542,13 +11542,13 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.03448275862068965</v>
+        <v>0.03355704697986577</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -11560,7 +11560,7 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>377</v>
@@ -11592,25 +11592,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E170">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H170">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>378</v>
@@ -11642,25 +11642,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.03355704697986577</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C171">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D171">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>379</v>
@@ -11692,7 +11692,7 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.03333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -11710,7 +11710,7 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>60</v>
@@ -11742,25 +11742,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E173">
-        <v>0.97</v>
+        <v>0.67</v>
       </c>
       <c r="F173">
-        <v>0.03000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>380</v>
@@ -11792,7 +11792,7 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -11810,10 +11810,10 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K174">
         <v>0.1666666666666667</v>
@@ -11842,25 +11842,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.03125</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E175">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="F175">
-        <v>0.33</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>381</v>
@@ -11892,28 +11892,28 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.03125</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K176">
         <v>0.1666666666666667</v>
@@ -11942,25 +11942,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0303030303030303</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E177">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="F177">
-        <v>0.07999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>382</v>
@@ -11992,25 +11992,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E178">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>383</v>
@@ -12042,25 +12042,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E179">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F179">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>384</v>
@@ -12092,28 +12092,28 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.02857142857142857</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K180">
         <v>0.1666666666666667</v>
@@ -12142,25 +12142,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.02777777777777778</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E181">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F181">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>385</v>
@@ -12192,25 +12192,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E182">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F182">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>386</v>
@@ -12242,25 +12242,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E183">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>387</v>
@@ -12292,25 +12292,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.02631578947368421</v>
+        <v>0.025</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E184">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>388</v>
@@ -12342,25 +12342,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>389</v>
@@ -12392,25 +12392,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.025</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H186">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>390</v>
@@ -12442,7 +12442,7 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.025</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -12460,7 +12460,7 @@
         <v>1</v>
       </c>
       <c r="H187">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>391</v>
@@ -12492,25 +12492,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.02380952380952381</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D188">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E188">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F188">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>392</v>
@@ -12542,25 +12542,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.02380952380952381</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E189">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H189">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>393</v>
@@ -12592,25 +12592,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.02298850574712644</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D190">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E190">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F190">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>394</v>
@@ -12642,25 +12642,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.02222222222222222</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>395</v>
@@ -12692,25 +12692,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.02173913043478261</v>
+        <v>0.02</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E192">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F192">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>396</v>
@@ -12742,25 +12742,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.02083333333333333</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E193">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="F193">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>397</v>
@@ -12792,7 +12792,7 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.02</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -12810,7 +12810,7 @@
         <v>1</v>
       </c>
       <c r="H194">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>398</v>
@@ -12842,28 +12842,28 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0198019801980198</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D195">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E195">
-        <v>0.85</v>
+        <v>0.5</v>
       </c>
       <c r="F195">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K195">
         <v>0.1604938271604938</v>
@@ -12892,25 +12892,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0196078431372549</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E196">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F196">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>399</v>
@@ -12942,25 +12942,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.01923076923076923</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D197">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E197">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="F197">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>400</v>
@@ -12992,25 +12992,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.01818181818181818</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E198">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="F198">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>401</v>
@@ -13042,25 +13042,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.01754385964912281</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="C199">
         <v>2</v>
       </c>
       <c r="D199">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E199">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="F199">
-        <v>0.11</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>402</v>
@@ -13092,25 +13092,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.01754385964912281</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D200">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E200">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F200">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>403</v>
@@ -13142,25 +13142,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.01739130434782609</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D201">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E201">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H201">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>404</v>
@@ -13192,25 +13192,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0170940170940171</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D202">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E202">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H202">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>405</v>
@@ -13248,16 +13248,16 @@
         <v>1</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203">
         <v>58</v>
@@ -13292,25 +13292,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.01694915254237288</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>406</v>
@@ -13342,28 +13342,28 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.01694915254237288</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E205">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F205">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K205">
         <v>0.1515151515151515</v>
@@ -13392,25 +13392,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.01666666666666667</v>
+        <v>0.015625</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E206">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="F206">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>407</v>
@@ -13442,25 +13442,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.01639344262295082</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E207">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F207">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>121</v>
@@ -13492,25 +13492,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.015625</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D208">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E208">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F208">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>408</v>
@@ -13542,28 +13542,28 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.01538461538461539</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E209">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="F209">
-        <v>0.33</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K209">
         <v>0.143939393939394</v>
@@ -13592,25 +13592,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.01526717557251908</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D210">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E210">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H210">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>409</v>
@@ -13642,25 +13642,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.01351351351351351</v>
+        <v>0.0125</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E211">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H211">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>410</v>
@@ -13692,25 +13692,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0131578947368421</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>411</v>
@@ -13742,25 +13742,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0125</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F213">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>412</v>
@@ -13792,25 +13792,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.01169590643274854</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="C214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D214">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="E214">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="F214">
-        <v>0.04000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>413</v>
@@ -13842,25 +13842,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.01136363636363636</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E215">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F215">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>414</v>
@@ -13892,25 +13892,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0108695652173913</v>
+        <v>0.01016949152542373</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D216">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="E216">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="F216">
-        <v>0.17</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>91</v>
+        <v>292</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>415</v>
@@ -13942,25 +13942,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.01041666666666667</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D217">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="E217">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F217">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>95</v>
+        <v>600</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>416</v>
@@ -13992,13 +13992,13 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.01016949152542373</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="C218">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D218">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E218">
         <v>0.91</v>
@@ -14010,7 +14010,7 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>292</v>
+        <v>101</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>417</v>
@@ -14042,25 +14042,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.009900990099009901</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="C219">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D219">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="E219">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F219">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>600</v>
+        <v>102</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>418</v>
@@ -14092,25 +14092,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.009803921568627451</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E220">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="F220">
-        <v>0.08999999999999997</v>
+        <v>0.33</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>419</v>
@@ -14142,25 +14142,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.009708737864077669</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E221">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="F221">
-        <v>0.14</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>420</v>
@@ -14192,25 +14192,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.009433962264150943</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E222">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F222">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>421</v>
@@ -14242,25 +14242,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.009259259259259259</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E223">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F223">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>422</v>
@@ -14292,25 +14292,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.008849557522123894</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E224">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="F224">
-        <v>0.05000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>423</v>
@@ -14342,13 +14342,13 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.008403361344537815</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D225">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E225">
         <v>0.95</v>
@@ -14360,7 +14360,7 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>118</v>
+        <v>357</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>424</v>
@@ -14392,25 +14392,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.008403361344537815</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E226">
-        <v>0.9</v>
+        <v>0.67</v>
       </c>
       <c r="F226">
-        <v>0.09999999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>425</v>
@@ -14442,25 +14442,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.008333333333333333</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="C227">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D227">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="E227">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F227">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>357</v>
+        <v>128</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>426</v>
@@ -14492,25 +14492,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.007936507936507936</v>
+        <v>0.007692307692307693</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E228">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F228">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>427</v>
@@ -14542,25 +14542,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.007751937984496124</v>
+        <v>0.007376185458377239</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D229">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E229">
-        <v>0.97</v>
+        <v>0.73</v>
       </c>
       <c r="F229">
-        <v>0.03000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>128</v>
+        <v>942</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>428</v>
@@ -14592,25 +14592,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.007692307692307693</v>
+        <v>0.0072992700729927</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E230">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="F230">
-        <v>0.11</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>429</v>
@@ -14642,25 +14642,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.007376185458377239</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="C231">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D231">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E231">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="F231">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>942</v>
+        <v>142</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>430</v>
@@ -14692,25 +14692,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0072992700729927</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E232">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="F232">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>431</v>
@@ -14742,25 +14742,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.006993006993006993</v>
+        <v>0.006134969325153374</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E233">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F233">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>432</v>
@@ -14792,25 +14792,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.006172839506172839</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E234">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="F234">
-        <v>0.08999999999999997</v>
+        <v>0.17</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>433</v>
@@ -14842,25 +14842,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.006134969325153374</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E235">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H235">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>434</v>
@@ -14892,25 +14892,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.006024096385542169</v>
+        <v>0.005780346820809248</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E236">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="F236">
-        <v>0.17</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>435</v>
@@ -14942,25 +14942,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.006024096385542169</v>
+        <v>0.005474452554744526</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F237">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H237">
-        <v>165</v>
+        <v>1090</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>436</v>
@@ -14992,25 +14992,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.005780346820809248</v>
+        <v>0.0051440329218107</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D238">
-        <v>13</v>
+        <v>209</v>
       </c>
       <c r="E238">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F238">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>172</v>
+        <v>1934</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>437</v>
@@ -15042,25 +15042,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.005474452554744526</v>
+        <v>0.004944375772558714</v>
       </c>
       <c r="C239">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D239">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E239">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F239">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>1090</v>
+        <v>805</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>438</v>
@@ -15092,25 +15092,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.0051440329218107</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="C240">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D240">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="E240">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F240">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>1934</v>
+        <v>210</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>439</v>
@@ -15142,25 +15142,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.004944375772558714</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="C241">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D241">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="E241">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F241">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>805</v>
+        <v>218</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>440</v>
@@ -15192,25 +15192,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.004739336492890996</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>173</v>
+        <v>2</v>
       </c>
       <c r="E242">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="F242">
-        <v>0.01000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>441</v>
@@ -15242,25 +15242,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.0045662100456621</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E243">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H243">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>442</v>
@@ -15292,25 +15292,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.00425531914893617</v>
+        <v>0.00389242745930644</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D244">
-        <v>2</v>
+        <v>292</v>
       </c>
       <c r="E244">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="F244">
-        <v>0.5</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>234</v>
+        <v>2815</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>124</v>
@@ -15342,25 +15342,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.003968253968253968</v>
+        <v>0.003768844221105527</v>
       </c>
       <c r="C245">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F245">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H245">
-        <v>251</v>
+        <v>793</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>443</v>
@@ -15392,25 +15392,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.00389242745930644</v>
+        <v>0.003745318352059925</v>
       </c>
       <c r="C246">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D246">
-        <v>292</v>
+        <v>103</v>
       </c>
       <c r="E246">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F246">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>2815</v>
+        <v>798</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>444</v>
@@ -15442,25 +15442,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.003768844221105527</v>
+        <v>0.003745318352059925</v>
       </c>
       <c r="C247">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D247">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="E247">
-        <v>0.97</v>
+        <v>0.85</v>
       </c>
       <c r="F247">
-        <v>0.03000000000000003</v>
+        <v>0.15</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>793</v>
+        <v>532</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>445</v>
@@ -15492,13 +15492,13 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.003745318352059925</v>
+        <v>0.003125</v>
       </c>
       <c r="C248">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D248">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="E248">
         <v>0.97</v>
@@ -15510,7 +15510,7 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>798</v>
+        <v>319</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>446</v>
@@ -15542,25 +15542,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.003745318352059925</v>
+        <v>0.002976190476190476</v>
       </c>
       <c r="C249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D249">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="E249">
-        <v>0.85</v>
+        <v>0.99</v>
       </c>
       <c r="F249">
-        <v>0.15</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>532</v>
+        <v>335</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>447</v>
@@ -15592,25 +15592,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.003125</v>
+        <v>0.002824858757062147</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E250">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="F250">
-        <v>0.03000000000000003</v>
+        <v>0.14</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>448</v>
@@ -15642,25 +15642,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.002976190476190476</v>
+        <v>0.001893939393939394</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="E251">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F251">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>335</v>
+        <v>527</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>449</v>
@@ -15692,25 +15692,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.002824858757062147</v>
+        <v>0.001306335728282169</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D252">
-        <v>7</v>
+        <v>143</v>
       </c>
       <c r="E252">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="F252">
-        <v>0.14</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>353</v>
+        <v>3058</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>450</v>
@@ -15738,32 +15738,8 @@
       </c>
     </row>
     <row r="253" spans="1:17">
-      <c r="A253" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B253">
-        <v>0.001893939393939394</v>
-      </c>
-      <c r="C253">
-        <v>1</v>
-      </c>
-      <c r="D253">
-        <v>40</v>
-      </c>
-      <c r="E253">
-        <v>0.97</v>
-      </c>
-      <c r="F253">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G253" t="b">
-        <v>1</v>
-      </c>
-      <c r="H253">
-        <v>527</v>
-      </c>
       <c r="J253" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K253">
         <v>0.1355932203389831</v>
@@ -15788,30 +15764,6 @@
       </c>
     </row>
     <row r="254" spans="1:17">
-      <c r="A254" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B254">
-        <v>0.001306335728282169</v>
-      </c>
-      <c r="C254">
-        <v>4</v>
-      </c>
-      <c r="D254">
-        <v>143</v>
-      </c>
-      <c r="E254">
-        <v>0.97</v>
-      </c>
-      <c r="F254">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G254" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254">
-        <v>3058</v>
-      </c>
       <c r="J254" s="1" t="s">
         <v>451</v>
       </c>
@@ -15943,7 +15895,7 @@
     </row>
     <row r="259" spans="10:17">
       <c r="J259" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K259">
         <v>0.1323529411764706</v>
@@ -15995,7 +15947,7 @@
     </row>
     <row r="261" spans="10:17">
       <c r="J261" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K261">
         <v>0.1317829457364341</v>
@@ -16073,7 +16025,7 @@
     </row>
     <row r="264" spans="10:17">
       <c r="J264" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K264">
         <v>0.1304347826086956</v>
@@ -16125,7 +16077,7 @@
     </row>
     <row r="266" spans="10:17">
       <c r="J266" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K266">
         <v>0.1290322580645161</v>
@@ -17061,7 +17013,7 @@
     </row>
     <row r="302" spans="10:17">
       <c r="J302" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K302">
         <v>0.1212121212121212</v>
@@ -17321,7 +17273,7 @@
     </row>
     <row r="312" spans="10:17">
       <c r="J312" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K312">
         <v>0.1147540983606557</v>
@@ -17347,7 +17299,7 @@
     </row>
     <row r="313" spans="10:17">
       <c r="J313" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K313">
         <v>0.1126760563380282</v>
@@ -17399,7 +17351,7 @@
     </row>
     <row r="315" spans="10:17">
       <c r="J315" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K315">
         <v>0.111358574610245</v>
@@ -18153,7 +18105,7 @@
     </row>
     <row r="344" spans="10:17">
       <c r="J344" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K344">
         <v>0.1099887766554433</v>
@@ -18205,7 +18157,7 @@
     </row>
     <row r="346" spans="10:17">
       <c r="J346" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K346">
         <v>0.1090909090909091</v>
@@ -18283,7 +18235,7 @@
     </row>
     <row r="349" spans="10:17">
       <c r="J349" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K349">
         <v>0.1071428571428571</v>
@@ -18361,7 +18313,7 @@
     </row>
     <row r="352" spans="10:17">
       <c r="J352" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K352">
         <v>0.1052631578947368</v>
@@ -18517,7 +18469,7 @@
     </row>
     <row r="358" spans="10:17">
       <c r="J358" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K358">
         <v>0.1</v>
@@ -18829,7 +18781,7 @@
     </row>
     <row r="370" spans="10:17">
       <c r="J370" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K370">
         <v>0.1</v>
@@ -19193,7 +19145,7 @@
     </row>
     <row r="384" spans="10:17">
       <c r="J384" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K384">
         <v>0.09876543209876543</v>
@@ -19297,7 +19249,7 @@
     </row>
     <row r="388" spans="10:17">
       <c r="J388" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K388">
         <v>0.09677419354838709</v>
@@ -19375,7 +19327,7 @@
     </row>
     <row r="391" spans="10:17">
       <c r="J391" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K391">
         <v>0.09615384615384616</v>
@@ -19479,7 +19431,7 @@
     </row>
     <row r="395" spans="10:17">
       <c r="J395" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K395">
         <v>0.09523809523809523</v>
@@ -19531,7 +19483,7 @@
     </row>
     <row r="397" spans="10:17">
       <c r="J397" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K397">
         <v>0.09329582747304266</v>
@@ -19557,7 +19509,7 @@
     </row>
     <row r="398" spans="10:17">
       <c r="J398" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K398">
         <v>0.09322033898305085</v>
@@ -20155,7 +20107,7 @@
     </row>
     <row r="421" spans="10:17">
       <c r="J421" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K421">
         <v>0.09076227390180878</v>
@@ -20181,7 +20133,7 @@
     </row>
     <row r="422" spans="10:17">
       <c r="J422" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K422">
         <v>0.09009009009009009</v>
@@ -20701,7 +20653,7 @@
     </row>
     <row r="442" spans="10:17">
       <c r="J442" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K442">
         <v>0.08333333333333333</v>
@@ -21065,7 +21017,7 @@
     </row>
     <row r="456" spans="10:17">
       <c r="J456" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K456">
         <v>0.08163265306122448</v>
@@ -21117,7 +21069,7 @@
     </row>
     <row r="458" spans="10:17">
       <c r="J458" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K458">
         <v>0.08</v>
@@ -21247,7 +21199,7 @@
     </row>
     <row r="463" spans="10:17">
       <c r="J463" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K463">
         <v>0.07894736842105263</v>
@@ -21377,7 +21329,7 @@
     </row>
     <row r="468" spans="10:17">
       <c r="J468" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K468">
         <v>0.07692307692307693</v>
@@ -21715,7 +21667,7 @@
     </row>
     <row r="481" spans="10:17">
       <c r="J481" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K481">
         <v>0.07627118644067797</v>
@@ -21793,7 +21745,7 @@
     </row>
     <row r="484" spans="10:17">
       <c r="J484" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K484">
         <v>0.07142857142857142</v>
@@ -22079,7 +22031,7 @@
     </row>
     <row r="495" spans="10:17">
       <c r="J495" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K495">
         <v>0.07142857142857142</v>
@@ -22209,7 +22161,7 @@
     </row>
     <row r="500" spans="10:17">
       <c r="J500" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K500">
         <v>0.07142857142857142</v>
@@ -22417,7 +22369,7 @@
     </row>
     <row r="508" spans="10:17">
       <c r="J508" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K508">
         <v>0.07086614173228346</v>
@@ -22573,7 +22525,7 @@
     </row>
     <row r="514" spans="10:17">
       <c r="J514" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K514">
         <v>0.06890459363957598</v>
@@ -22625,7 +22577,7 @@
     </row>
     <row r="516" spans="10:17">
       <c r="J516" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K516">
         <v>0.06832298136645963</v>
@@ -22677,7 +22629,7 @@
     </row>
     <row r="518" spans="10:17">
       <c r="J518" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K518">
         <v>0.06818181818181818</v>
@@ -22729,7 +22681,7 @@
     </row>
     <row r="520" spans="10:17">
       <c r="J520" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K520">
         <v>0.06818181818181818</v>
@@ -22833,7 +22785,7 @@
     </row>
     <row r="524" spans="10:17">
       <c r="J524" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K524">
         <v>0.06720741599073002</v>
@@ -22989,7 +22941,7 @@
     </row>
     <row r="530" spans="10:17">
       <c r="J530" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K530">
         <v>0.06666666666666667</v>
@@ -23093,7 +23045,7 @@
     </row>
     <row r="534" spans="10:17">
       <c r="J534" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K534">
         <v>0.06666666666666667</v>
@@ -23275,7 +23227,7 @@
     </row>
     <row r="541" spans="10:17">
       <c r="J541" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K541">
         <v>0.06521739130434782</v>
@@ -23769,7 +23721,7 @@
     </row>
     <row r="560" spans="10:17">
       <c r="J560" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K560">
         <v>0.06060606060606061</v>
@@ -23795,7 +23747,7 @@
     </row>
     <row r="561" spans="10:17">
       <c r="J561" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K561">
         <v>0.06060606060606061</v>
@@ -24315,7 +24267,7 @@
     </row>
     <row r="581" spans="10:17">
       <c r="J581" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K581">
         <v>0.05847953216374269</v>
@@ -24341,7 +24293,7 @@
     </row>
     <row r="582" spans="10:17">
       <c r="J582" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K582">
         <v>0.0583941605839416</v>
@@ -24471,7 +24423,7 @@
     </row>
     <row r="587" spans="10:17">
       <c r="J587" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K587">
         <v>0.05627705627705628</v>
@@ -24523,7 +24475,7 @@
     </row>
     <row r="589" spans="10:17">
       <c r="J589" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K589">
         <v>0.05555555555555555</v>
@@ -25069,7 +25021,7 @@
     </row>
     <row r="610" spans="10:17">
       <c r="J610" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K610">
         <v>0.05263157894736842</v>
@@ -25407,7 +25359,7 @@
     </row>
     <row r="623" spans="10:17">
       <c r="J623" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K623">
         <v>0.05208333333333334</v>
@@ -25459,7 +25411,7 @@
     </row>
     <row r="625" spans="10:17">
       <c r="J625" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K625">
         <v>0.05128205128205128</v>
@@ -25719,7 +25671,7 @@
     </row>
     <row r="635" spans="10:17">
       <c r="J635" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K635">
         <v>0.05</v>
@@ -25849,7 +25801,7 @@
     </row>
     <row r="640" spans="10:17">
       <c r="J640" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K640">
         <v>0.04838709677419355</v>
@@ -26421,7 +26373,7 @@
     </row>
     <row r="662" spans="10:17">
       <c r="J662" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K662">
         <v>0.04395604395604396</v>
@@ -26447,7 +26399,7 @@
     </row>
     <row r="663" spans="10:17">
       <c r="J663" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K663">
         <v>0.04347826086956522</v>
@@ -26681,7 +26633,7 @@
     </row>
     <row r="672" spans="10:17">
       <c r="J672" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K672">
         <v>0.04347826086956522</v>
@@ -26733,7 +26685,7 @@
     </row>
     <row r="674" spans="10:17">
       <c r="J674" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K674">
         <v>0.04347826086956522</v>
@@ -27591,7 +27543,7 @@
     </row>
     <row r="707" spans="10:17">
       <c r="J707" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K707">
         <v>0.03571428571428571</v>
@@ -27643,7 +27595,7 @@
     </row>
     <row r="709" spans="10:17">
       <c r="J709" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K709">
         <v>0.03571428571428571</v>
@@ -28111,7 +28063,7 @@
     </row>
     <row r="727" spans="10:17">
       <c r="J727" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K727">
         <v>0.0303030303030303</v>
@@ -28267,7 +28219,7 @@
     </row>
     <row r="733" spans="10:17">
       <c r="J733" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K733">
         <v>0.02941176470588235</v>
@@ -28371,7 +28323,7 @@
     </row>
     <row r="737" spans="10:17">
       <c r="J737" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K737">
         <v>0.02857142857142857</v>
@@ -29203,7 +29155,7 @@
     </row>
     <row r="769" spans="10:17">
       <c r="J769" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K769">
         <v>0.02025782688766114</v>
@@ -29385,7 +29337,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K776">
         <v>0.01977107180020812</v>
@@ -29437,7 +29389,7 @@
     </row>
     <row r="778" spans="10:17">
       <c r="J778" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K778">
         <v>0.01923076923076923</v>
@@ -29489,7 +29441,7 @@
     </row>
     <row r="780" spans="10:17">
       <c r="J780" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K780">
         <v>0.01869158878504673</v>
@@ -29515,7 +29467,7 @@
     </row>
     <row r="781" spans="10:17">
       <c r="J781" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K781">
         <v>0.01818181818181818</v>
@@ -29619,7 +29571,7 @@
     </row>
     <row r="785" spans="10:17">
       <c r="J785" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K785">
         <v>0.01671309192200557</v>
@@ -29723,7 +29675,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K789">
         <v>0.01574803149606299</v>
@@ -29827,7 +29779,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K793">
         <v>0.01388888888888889</v>
@@ -30321,7 +30273,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K812">
         <v>0.00425531914893617</v>
